--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3346709.207604761</v>
+        <v>-3347522.654816649</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954292</v>
+        <v>2927877.345954294</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>54.33550657144571</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H11" t="n">
         <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.3207076824131</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545167</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
         <v>244.6123490244663</v>
@@ -1436,7 +1436,7 @@
         <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>209.891514761815</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.04413268653472</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438468</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196313</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774258</v>
+        <v>39.48438710663039</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592888</v>
+        <v>61.95871608592883</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366591</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227657</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271692</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S13" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193852</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706114</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141336</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
         <v>130.8176748810939</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842872</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
         <v>289.1172887419689</v>
@@ -1613,19 +1613,19 @@
         <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>69.17866407813645</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
         <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241313</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.0821803754517</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>69.92431606958996</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313686</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898428</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438477</v>
+        <v>78.92267750438468</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196315</v>
+        <v>62.54404190196307</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033072</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366594</v>
+        <v>55.56609447525856</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>169.5101151370703</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586099</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
         <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250263</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
         <v>130.8176748810939</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305284</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449619</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F17" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807973</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011101</v>
+        <v>7.152388864010993</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283895</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U17" t="n">
-        <v>86.3664569411884</v>
+        <v>86.36645694118829</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754368</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944167</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890204</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.4931377608283</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>61.9027910937733</v>
+        <v>41.43397610794432</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917111</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716928</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177825</v>
+        <v>273.3298663644409</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358565</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965334</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305284</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449619</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F20" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807973</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011101</v>
+        <v>7.152388864010993</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283895</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U20" t="n">
-        <v>86.3664569411884</v>
+        <v>86.36645694118829</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754368</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944167</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890204</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.4730286503641</v>
       </c>
       <c r="R22" t="n">
-        <v>137.1599022512687</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.23602660333303</v>
+        <v>41.43397610794432</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917111</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716928</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358565</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965334</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305284</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449619</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F23" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4772461807973</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011101</v>
+        <v>7.152388864010993</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283895</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U23" t="n">
-        <v>86.3664569411884</v>
+        <v>86.3664569411883</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945767</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754368</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944167</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890204</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794444</v>
+        <v>41.43397610794432</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917111</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716928</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358565</v>
+        <v>218.974968360244</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.8498361163107</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V26" t="n">
         <v>231.1103301070618</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455861</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532072</v>
+        <v>127.315393953207</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967284</v>
       </c>
       <c r="V28" t="n">
         <v>155.6288001412053</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500859</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157971</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C31" t="n">
-        <v>65.4206585869802</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455859</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033803</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852434</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292624</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626137</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8617487019799</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.315393953207</v>
       </c>
       <c r="U31" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967284</v>
       </c>
       <c r="V31" t="n">
         <v>155.6288001412053</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668828</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245645</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690925</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.338711438998</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
-        <v>307.5105275269752</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748334</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403574</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.8186887650087</v>
+        <v>47.81868876500862</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804727</v>
+        <v>70.58016145804719</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668751</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
         <v>149.7942295352245</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070619</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850188</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177654</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.1072856139642</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157983</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698031</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0420229845587</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033815</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852446</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292635</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626149</v>
+        <v>53.1310423262614</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487215</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531257</v>
+        <v>34.66075099531248</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019806</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532073</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967288</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412054</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118187</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076218</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636895</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>19.51683636612759</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>54.77414398506299</v>
       </c>
       <c r="T37" t="n">
-        <v>96.74462560241719</v>
+        <v>77.22778923628967</v>
       </c>
       <c r="U37" t="n">
         <v>131.7183987798112</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.1330590246622</v>
+        <v>30.73505188638859</v>
       </c>
       <c r="C40" t="n">
         <v>15.33305387006268</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.60199286172639</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>17.91484350440141</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>74.29098035119094</v>
+        <v>54.77414398506293</v>
       </c>
       <c r="T43" t="n">
         <v>77.22778923628961</v>
@@ -3961,7 +3961,7 @@
         <v>130.708081494901</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070414</v>
+        <v>77.95517635243074</v>
       </c>
       <c r="Y43" t="n">
         <v>67.22805124677183</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>19.51683636612759</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.29098035119048</v>
+        <v>54.77414398506299</v>
       </c>
       <c r="T46" t="n">
         <v>77.22778923628967</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1337.652120583615</v>
+        <v>1210.571984839814</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.652120583615</v>
+        <v>918.5343194438849</v>
       </c>
       <c r="D11" t="n">
-        <v>1054.724249082103</v>
+        <v>918.5343194438849</v>
       </c>
       <c r="E11" t="n">
-        <v>999.8398990099355</v>
+        <v>613.6446928212563</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913703</v>
+        <v>613.6446928212563</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547665</v>
+        <v>287.9810183846523</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974314</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8985774144699</v>
+        <v>131.281991181161</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938954</v>
+        <v>439.2714293605865</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436963</v>
+        <v>871.3295686103874</v>
       </c>
       <c r="M11" t="n">
-        <v>1394.843741810911</v>
+        <v>1358.227155577602</v>
       </c>
       <c r="N11" t="n">
-        <v>1868.349012376772</v>
+        <v>1831.732426143463</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355414</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5066,25 +5066,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002492</v>
+        <v>2399.385386331231</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494786</v>
+        <v>2234.439680823525</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>1987.356499990731</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790857</v>
+        <v>1714.717663119596</v>
       </c>
       <c r="X11" t="n">
-        <v>1337.652120583615</v>
+        <v>1422.583615912354</v>
       </c>
       <c r="Y11" t="n">
-        <v>1337.652120583615</v>
+        <v>1210.571984839814</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>206.1118778881641</v>
       </c>
       <c r="H12" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738865</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
         <v>137.8463925088448</v>
@@ -5127,13 +5127,13 @@
         <v>841.2082694571444</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5145,7 +5145,7 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T12" t="n">
         <v>2154.858197092098</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>431.5539230353049</v>
+        <v>279.7826377396607</v>
       </c>
       <c r="C13" t="n">
-        <v>431.5539230353049</v>
+        <v>200.0627614726058</v>
       </c>
       <c r="D13" t="n">
-        <v>368.378123134332</v>
+        <v>200.0627614726058</v>
       </c>
       <c r="E13" t="n">
-        <v>306.2652021669153</v>
+        <v>160.1795421729791</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639568</v>
+        <v>97.59498047002069</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383701</v>
+        <v>97.59498047002069</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002074</v>
+        <v>97.59498047002069</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.7900541541317</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K13" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405359</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447745</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068812</v>
+        <v>957.3332466068816</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1379.457596424593</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.89823519289</v>
+        <v>1259.898235192891</v>
       </c>
       <c r="T13" t="n">
         <v>1117.658424212475</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911274</v>
+        <v>920.3775934911283</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208149</v>
+        <v>749.5383823208153</v>
       </c>
       <c r="W13" t="n">
-        <v>749.5383823208149</v>
+        <v>553.2780741094789</v>
       </c>
       <c r="X13" t="n">
-        <v>608.182011487455</v>
+        <v>411.9217032761192</v>
       </c>
       <c r="Y13" t="n">
-        <v>476.0429459509966</v>
+        <v>279.7826377396607</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1319.019199933537</v>
+        <v>1580.403253802555</v>
       </c>
       <c r="C14" t="n">
-        <v>1026.981534537608</v>
+        <v>1288.365588406627</v>
       </c>
       <c r="D14" t="n">
-        <v>744.0536630360961</v>
+        <v>1005.437716905115</v>
       </c>
       <c r="E14" t="n">
-        <v>674.176224573332</v>
+        <v>700.5480902824859</v>
       </c>
       <c r="F14" t="n">
-        <v>349.9211271547666</v>
+        <v>376.292992863921</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547666</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974314</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J14" t="n">
         <v>167.8985774144699</v>
@@ -5285,16 +5285,16 @@
         <v>907.9461548436963</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.700173710448</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O14" t="n">
-        <v>2074.574784355414</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.465921365857</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="U14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="V14" t="n">
-        <v>2199.451245204324</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="W14" t="n">
-        <v>1926.812408333189</v>
+        <v>2258.827084494722</v>
       </c>
       <c r="X14" t="n">
-        <v>1926.812408333189</v>
+        <v>2188.196462202207</v>
       </c>
       <c r="Y14" t="n">
-        <v>1623.166646180291</v>
+        <v>1884.550700049309</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K15" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L15" t="n">
-        <v>753.9911953756168</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M15" t="n">
-        <v>1311.335413027355</v>
+        <v>935.0807557888472</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.873370568726</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.465921365856</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365856</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.8311170636948</v>
+        <v>328.4319002777586</v>
       </c>
       <c r="C16" t="n">
-        <v>181.1112407966395</v>
+        <v>248.7120240107033</v>
       </c>
       <c r="D16" t="n">
-        <v>117.9354408956666</v>
+        <v>185.5362241097305</v>
       </c>
       <c r="E16" t="n">
-        <v>117.9354408956666</v>
+        <v>185.5362241097305</v>
       </c>
       <c r="F16" t="n">
-        <v>117.9354408956666</v>
+        <v>185.5362241097305</v>
       </c>
       <c r="G16" t="n">
-        <v>117.9354408956666</v>
+        <v>106.756686584144</v>
       </c>
       <c r="H16" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413167</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K16" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405358</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447743</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068808</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962689</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1428.106858962689</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.547497730987</v>
+        <v>1308.547497730989</v>
       </c>
       <c r="T16" t="n">
-        <v>1166.307686750571</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U16" t="n">
-        <v>995.0853482282781</v>
+        <v>969.0268560292261</v>
       </c>
       <c r="V16" t="n">
-        <v>824.2461370579651</v>
+        <v>798.1876448589132</v>
       </c>
       <c r="W16" t="n">
-        <v>627.9858288466287</v>
+        <v>601.9273366475768</v>
       </c>
       <c r="X16" t="n">
-        <v>486.6294580132687</v>
+        <v>460.5709658142171</v>
       </c>
       <c r="Y16" t="n">
-        <v>354.4903924768103</v>
+        <v>328.4319002777586</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084494</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
         <v>1137.182987801132</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121859</v>
+        <v>931.961976412186</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021233</v>
+        <v>704.7792099021236</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961243</v>
+        <v>458.2309725961247</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J17" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938954</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436963</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144587</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710448</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.574784355414</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P17" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q17" t="n">
         <v>2531.465921365857</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779676</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189225</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091347</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660058</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158802</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J18" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K18" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L18" t="n">
-        <v>753.9911953756168</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M18" t="n">
-        <v>1311.335413027355</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.825776698123</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.926843062759</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.75408200965</v>
+        <v>1268.754082009649</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.232755659229</v>
+        <v>1076.232755659228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.5767673087947</v>
+        <v>53.71501199482637</v>
       </c>
       <c r="C19" t="n">
-        <v>188.5637511543056</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="D19" t="n">
-        <v>188.5637511543056</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="E19" t="n">
-        <v>188.5637511543056</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F19" t="n">
-        <v>188.5637511543056</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G19" t="n">
-        <v>187.4910737412852</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H19" t="n">
-        <v>187.4910737412852</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
@@ -5698,25 +5698,25 @@
         <v>782.9316911990691</v>
       </c>
       <c r="S19" t="n">
-        <v>720.4036193871768</v>
+        <v>741.0791900799334</v>
       </c>
       <c r="T19" t="n">
-        <v>655.8706685193272</v>
+        <v>676.5462392120838</v>
       </c>
       <c r="U19" t="n">
-        <v>536.2966979105468</v>
+        <v>556.9722686033035</v>
       </c>
       <c r="V19" t="n">
-        <v>443.1643468528</v>
+        <v>463.8399175455569</v>
       </c>
       <c r="W19" t="n">
-        <v>324.6108987540297</v>
+        <v>187.7491434400611</v>
       </c>
       <c r="X19" t="n">
-        <v>260.9613880332361</v>
+        <v>124.0996327192676</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.5291826093438</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.182987801132</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121859</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021226</v>
+        <v>704.7792099021233</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961236</v>
+        <v>458.2309725961243</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J20" t="n">
         <v>167.8985774144699</v>
@@ -5759,13 +5759,13 @@
         <v>907.9461548436963</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144587</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P20" t="n">
         <v>2379.433668932841</v>
@@ -5780,7 +5780,7 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
@@ -5795,7 +5795,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
         <v>137.8463925088448</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.7150119948266</v>
+        <v>205.7240262335075</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033755</v>
+        <v>203.7110100790186</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033755</v>
+        <v>203.7110100790186</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033755</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033755</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
@@ -5929,31 +5929,31 @@
         <v>782.9316911990691</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.9316911990691</v>
+        <v>777.4033794310245</v>
       </c>
       <c r="R22" t="n">
-        <v>644.3863353897067</v>
+        <v>777.4033794310245</v>
       </c>
       <c r="S22" t="n">
-        <v>583.5418640732087</v>
+        <v>735.5508783118888</v>
       </c>
       <c r="T22" t="n">
-        <v>519.008913205359</v>
+        <v>671.0179274440393</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4349425965786</v>
+        <v>551.443956835259</v>
       </c>
       <c r="V22" t="n">
-        <v>306.3025915388318</v>
+        <v>458.3116057775123</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7491434400616</v>
+        <v>339.7581576787422</v>
       </c>
       <c r="X22" t="n">
-        <v>124.099632719268</v>
+        <v>276.1086469579487</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.66742729537577</v>
+        <v>221.6764415340566</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021226</v>
+        <v>704.7792099021225</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
         <v>50.62931842731714</v>
@@ -5987,49 +5987,49 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938954</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436963</v>
+        <v>719.2973161773724</v>
       </c>
       <c r="M23" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N23" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O23" t="n">
-        <v>2263.223623021738</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G24" t="n">
         <v>206.1118778881637</v>
@@ -6093,19 +6093,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.7150119948266</v>
+        <v>53.71501199482638</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70199584033755</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70199584033755</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033755</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033755</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="G25" t="n">
         <v>50.62931842731714</v>
@@ -6172,25 +6172,25 @@
         <v>782.9316911990691</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799333</v>
+        <v>741.0791900799334</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120836</v>
+        <v>676.5462392120838</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033032</v>
+        <v>556.9722686033035</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455564</v>
+        <v>463.8399175455569</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467862</v>
+        <v>345.2864694467868</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259926</v>
+        <v>124.0996327192676</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.66742729537577</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967896</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353659</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550345</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L26" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N26" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,7 +6300,7 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C28" t="n">
         <v>369.0145279284112</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E28" t="n">
         <v>271.0026129537681</v>
@@ -6373,16 +6373,16 @@
         <v>222.0564541976829</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H28" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K28" t="n">
         <v>292.3240720266708</v>
@@ -6391,7 +6391,7 @@
         <v>529.9767315995731</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320421</v>
+        <v>786.949472832042</v>
       </c>
       <c r="N28" t="n">
         <v>1043.459262822379</v>
@@ -6418,16 +6418,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553703</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909072</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044206</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F29" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
         <v>341.9353438353664</v>
@@ -6461,31 +6461,31 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>187.3366846949158</v>
+        <v>187.3366846949163</v>
       </c>
       <c r="K29" t="n">
-        <v>596.8002826177379</v>
+        <v>596.8002826177384</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.332581610935</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M29" t="n">
         <v>1718.704328321547</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P29" t="n">
         <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
         <v>3424.723957701281</v>
@@ -6494,10 +6494,10 @@
         <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
         <v>2662.529311242513</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C31" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D31" t="n">
         <v>319.4771309743115</v>
       </c>
       <c r="E31" t="n">
-        <v>271.002612953768</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
         <v>156.9153196189694</v>
@@ -6625,10 +6625,10 @@
         <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995731</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.949472832042</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N31" t="n">
         <v>1043.459262822379</v>
@@ -6646,25 +6646,25 @@
         <v>1519.323011771654</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553705</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909073</v>
+        <v>761.335504190907</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044207</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="32">
@@ -6683,31 +6683,31 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967889</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250968</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G32" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249041</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I32" t="n">
         <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322123</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550343</v>
+        <v>698.1273576550344</v>
       </c>
       <c r="L32" t="n">
-        <v>1130.332581610937</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321548</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
         <v>2293.683758630805</v>
@@ -6722,28 +6722,28 @@
         <v>3449.871985516404</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U32" t="n">
         <v>3154.974523052696</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485939</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284117</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.477130974312</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537684</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976831</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189696</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974934</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567078</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266706</v>
+        <v>292.3240720266717</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995728</v>
+        <v>529.9767315995739</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320416</v>
+        <v>786.9494728320428</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822381</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021228</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688842</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362881</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771657</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486828</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453285</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553715</v>
+        <v>943.9574094553706</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909082</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044215</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148362</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018757</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
         <v>227.5990516189933</v>
@@ -6935,22 +6935,22 @@
         <v>54.47929472662986</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137832</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932085</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898477</v>
@@ -6962,13 +6962,13 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.265184067725</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098071</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V35" t="n">
         <v>2351.851591887515</v>
@@ -6977,10 +6977,10 @@
         <v>2143.444698081352</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270597</v>
+        <v>107.3029779201076</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000752</v>
+        <v>77.26745025740914</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662986</v>
+        <v>74.19327085403147</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662986</v>
+        <v>74.19327085403147</v>
       </c>
       <c r="J37" t="n">
         <v>54.47929472662986</v>
@@ -7123,22 +7123,22 @@
         <v>731.454249331651</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888054</v>
+        <v>653.4463814162069</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324304</v>
+        <v>520.3974937598321</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270892</v>
+        <v>413.7902256544908</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0478843807245</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123364</v>
+        <v>204.637432739738</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408496</v>
+        <v>136.7303102682513</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018752</v>
       </c>
       <c r="E38" t="n">
-        <v>749.053937344219</v>
+        <v>749.0539373442182</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906248</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189933</v>
@@ -7208,10 +7208,10 @@
         <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887514</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X38" t="n">
         <v>1915.542593939081</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.20717640051032</v>
+        <v>87.58900179270589</v>
       </c>
       <c r="C40" t="n">
-        <v>73.7192431984268</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="D40" t="n">
-        <v>73.7192431984268</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="E40" t="n">
-        <v>73.7192431984268</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="F40" t="n">
-        <v>73.7192431984268</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="G40" t="n">
-        <v>59.17164873781192</v>
+        <v>57.55347413000749</v>
       </c>
       <c r="H40" t="n">
-        <v>56.09746933443429</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I40" t="n">
-        <v>56.09746933443429</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J40" t="n">
         <v>54.47929472662985</v>
@@ -7409,19 +7409,19 @@
         <v>54.47929472662986</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137832</v>
+        <v>171.7485537137831</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932086</v>
+        <v>479.7379918932084</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430093</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M41" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O41" t="n">
         <v>2267.07359932105</v>
@@ -7588,25 +7588,25 @@
         <v>786.7816674983812</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983812</v>
+        <v>768.6858659787838</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983812</v>
+        <v>768.6858659787838</v>
       </c>
       <c r="S43" t="n">
-        <v>711.740273204249</v>
+        <v>713.3584478120536</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888049</v>
+        <v>635.3505798966095</v>
       </c>
       <c r="U43" t="n">
-        <v>500.68351763243</v>
+        <v>502.3016922402346</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270889</v>
+        <v>395.6944241348934</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807242</v>
+        <v>263.6660589885288</v>
       </c>
       <c r="X43" t="n">
         <v>184.9234566123361</v>
@@ -7646,13 +7646,13 @@
         <v>54.47929472662986</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932079</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430087</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110223</v>
@@ -7661,7 +7661,7 @@
         <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898477</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270597</v>
+        <v>107.3029779201076</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.81504471802404</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000752</v>
+        <v>77.26745025740914</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662986</v>
+        <v>74.19327085403147</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662986</v>
+        <v>74.19327085403147</v>
       </c>
       <c r="J46" t="n">
         <v>54.47929472662986</v>
@@ -7831,25 +7831,25 @@
         <v>786.7816674983812</v>
       </c>
       <c r="S46" t="n">
-        <v>711.7402732042494</v>
+        <v>731.454249331651</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888054</v>
+        <v>653.4463814162069</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324304</v>
+        <v>520.3974937598321</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270892</v>
+        <v>413.7902256544908</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807245</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123364</v>
+        <v>204.637432739738</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408496</v>
+        <v>136.7303102682513</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>182.8391489829799</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8702,13 +8702,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>304.4858531503327</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>137.263318915369</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>393.8132110494461</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -8942,10 +8942,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>381.3518698822114</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153681</v>
       </c>
       <c r="N15" t="n">
-        <v>439.252690188001</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>393.8132110494461</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233596</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,16 +9252,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>230.1092027733006</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494461</v>
+        <v>393.8132110494452</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>470.8589933810694</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>381.3518698822118</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236964</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842872</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>247.5052237849567</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>90.71778976955351</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.67854997244954</v>
+        <v>92.7226826589842</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438474</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196307</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22.00740465111213</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>77.99174215033072</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>232.662066278266</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922379</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842796</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>219.2883906655798</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>92.7226826589842</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.4917917577426</v>
+        <v>61.49179175774252</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592891</v>
+        <v>61.95871608592883</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033081</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>11.06696676840738</v>
       </c>
       <c r="I16" t="n">
-        <v>46.4960054222766</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.162769912717</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>25.79790727706279</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1305781.596607061</v>
+        <v>1305781.596607062</v>
       </c>
     </row>
     <row r="7">
@@ -26317,22 +26317,22 @@
         <v>19146.9157876826</v>
       </c>
       <c r="D2" t="n">
-        <v>19146.9157876826</v>
+        <v>19146.91578768261</v>
       </c>
       <c r="E2" t="n">
-        <v>16732.16995299417</v>
+        <v>16732.16995299418</v>
       </c>
       <c r="F2" t="n">
-        <v>16732.16995299417</v>
+        <v>16732.16995299418</v>
       </c>
       <c r="G2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235452</v>
       </c>
       <c r="H2" t="n">
         <v>19190.60151235453</v>
       </c>
       <c r="I2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235451</v>
       </c>
       <c r="J2" t="n">
         <v>19190.60151235453</v>
@@ -26341,13 +26341,13 @@
         <v>19190.60151235453</v>
       </c>
       <c r="L2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235452</v>
       </c>
       <c r="M2" t="n">
         <v>19190.60151235455</v>
       </c>
       <c r="N2" t="n">
-        <v>19190.60151235454</v>
+        <v>19190.60151235455</v>
       </c>
       <c r="O2" t="n">
         <v>19190.60151235455</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915248</v>
+        <v>61543.8332091525</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613917</v>
+        <v>83547.74167613918</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915238</v>
+        <v>61543.83320915249</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415066</v>
+        <v>149683.3109415064</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561259</v>
+        <v>20455.48779561256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>300146.3013995251</v>
       </c>
       <c r="H4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="I4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="J4" t="n">
-        <v>298009.3859165157</v>
+        <v>298009.3859165158</v>
       </c>
       <c r="K4" t="n">
         <v>298009.3859165158</v>
@@ -26488,16 +26488,16 @@
         <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233076</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462554</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462554</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654693</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-411550.8416160335</v>
+        <v>-411555.2101885006</v>
       </c>
       <c r="C6" t="n">
-        <v>-411550.8416160335</v>
+        <v>-411555.2101885006</v>
       </c>
       <c r="D6" t="n">
-        <v>-411550.8416160335</v>
+        <v>-411555.2101885006</v>
       </c>
       <c r="E6" t="n">
-        <v>-644199.7434031458</v>
+        <v>-644445.5865590818</v>
       </c>
       <c r="F6" t="n">
-        <v>-276369.4038881743</v>
+        <v>-276615.2470441105</v>
       </c>
       <c r="G6" t="n">
-        <v>-397848.7767386538</v>
+        <v>-397848.7767386539</v>
       </c>
       <c r="H6" t="n">
-        <v>-336304.9435295013</v>
+        <v>-336304.9435295014</v>
       </c>
       <c r="I6" t="n">
         <v>-336304.9435295013</v>
       </c>
       <c r="J6" t="n">
-        <v>-427044.6374649259</v>
+        <v>-427044.6374649261</v>
       </c>
       <c r="K6" t="n">
         <v>-343496.8957887869</v>
       </c>
       <c r="L6" t="n">
-        <v>-405040.7289979391</v>
+        <v>-405040.7289979394</v>
       </c>
       <c r="M6" t="n">
-        <v>-484639.1542552685</v>
+        <v>-484639.1542552684</v>
       </c>
       <c r="N6" t="n">
         <v>-334955.843313762</v>
       </c>
       <c r="O6" t="n">
-        <v>-355411.3311093746</v>
+        <v>-355411.3311093745</v>
       </c>
       <c r="P6" t="n">
-        <v>-334955.843313762</v>
+        <v>-334955.8433137619</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
         <v>102.4991512559563</v>
@@ -26713,7 +26713,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
         <v>152.5867559728738</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="I4" t="n">
         <v>632.8664803414642</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
         <v>680.9911840828732</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.9297915114406</v>
+        <v>76.92979151144063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451571</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144048</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="M2" t="n">
-        <v>50.0876047169176</v>
+        <v>50.08760471691751</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451574</v>
+        <v>25.56935974451569</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793222</v>
+        <v>241.1377821793225</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035509</v>
+        <v>439.8534019035507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.9297915114406</v>
+        <v>76.92979151144063</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451571</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855176</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209649</v>
@@ -28612,25 +28612,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,13 +28734,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
         <v>42.37012655389059</v>
@@ -28770,25 +28770,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>145.4581088641635</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499923</v>
+        <v>9.964971103333994</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209649</v>
@@ -28849,25 +28849,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="21">
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440138</v>
+        <v>12.44181485403728</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>147.1248733546037</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I23" t="n">
         <v>150.3178400209649</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591181</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29244,25 +29244,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9269238499923</v>
+        <v>9.964971103333994</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.964971103335017</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="26">
@@ -29305,13 +29305,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102021828</v>
       </c>
       <c r="N26" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1485704102009322</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P26" t="n">
         <v>102.4991512559563</v>
@@ -29533,7 +29533,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1485704102022538</v>
+        <v>0.1485704102027086</v>
       </c>
       <c r="K29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1485704102036038</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559562</v>
+        <v>0.1485704102028649</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559573</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
-        <v>102.499151255959</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37012655389062</v>
+        <v>22.85329018776303</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="T37" t="n">
-        <v>133.0699196067463</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
         <v>152.5867559728738</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728738</v>
+        <v>150.9847631111474</v>
       </c>
       <c r="C40" t="n">
         <v>152.5867559728738</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>40.76813369216423</v>
+        <v>42.37012655389062</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440141</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S43" t="n">
-        <v>133.0699196067458</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
         <v>152.5867559728738</v>
@@ -30681,7 +30681,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728738</v>
+        <v>150.9847631111472</v>
       </c>
       <c r="Y43" t="n">
         <v>152.5867559728738</v>
@@ -30876,7 +30876,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389062</v>
+        <v>22.85329018776303</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>137.1599022512688</v>
       </c>
       <c r="S46" t="n">
-        <v>133.0699196067463</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T46" t="n">
         <v>152.5867559728738</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>81.46734621600392</v>
       </c>
       <c r="K11" t="n">
         <v>311.1004426054803</v>
@@ -35422,13 +35422,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O11" t="n">
-        <v>208.3088605844865</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.567931750521</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>94.8206932643472</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466117</v>
+        <v>46.62700578466123</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
         <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415039</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
-        <v>301.2613619200916</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
         <v>478.2881520867284</v>
@@ -35662,10 +35662,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
-        <v>307.938267249927</v>
+        <v>270.9518165092109</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.567931750521</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
@@ -35732,10 +35732,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>562.9739572239781</v>
+        <v>94.82069326434627</v>
       </c>
       <c r="N15" t="n">
-        <v>407.5120112896321</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35744,7 +35744,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466114</v>
+        <v>46.62700578466123</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N16" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415036</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>311.1004426054803</v>
@@ -35890,7 +35890,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2613619200916</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867284</v>
@@ -35902,7 +35902,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600444</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
@@ -35972,16 +35972,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
-        <v>176.3020992960586</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200916</v>
+        <v>301.2613619200907</v>
       </c>
       <c r="N20" t="n">
         <v>478.2881520867284</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054803</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785867</v>
+        <v>364.3217773440705</v>
       </c>
       <c r="M23" t="n">
         <v>491.8157444113278</v>
@@ -36373,10 +36373,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>270.9518165092114</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614365</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L26" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672841</v>
+        <v>491.96431482153</v>
       </c>
       <c r="N26" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
-        <v>399.0118134859237</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
         <v>410.4374185058833</v>
@@ -36616,7 +36616,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206568</v>
+        <v>60.1290247020657</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>118.6023673669221</v>
+        <v>118.6023673669226</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614365</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004354</v>
+        <v>46.61117633004353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206567</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565281</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155489</v>
+        <v>84.58430775155487</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126761</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614363</v>
+        <v>413.5995938614364</v>
       </c>
       <c r="L32" t="n">
-        <v>436.5709332887902</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672838</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426844</v>
+        <v>478.4367224969311</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316788</v>
+        <v>501.3623943316789</v>
       </c>
       <c r="P32" t="n">
-        <v>410.437418505883</v>
+        <v>410.4374185058831</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.067083006477</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004343</v>
+        <v>46.61117633004351</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206557</v>
+        <v>60.12902470206566</v>
       </c>
       <c r="K34" t="n">
-        <v>164.521208656528</v>
+        <v>164.5212086565291</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877799</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873423</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700402</v>
+        <v>259.1007979700374</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685317</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016305</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155477</v>
+        <v>84.58430775155486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.4537969567199</v>
+        <v>118.4537969567204</v>
       </c>
       <c r="K41" t="n">
         <v>311.1004426054802</v>
